--- a/public/excel/product.xlsx
+++ b/public/excel/product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gr34tnull/Projects/0 - Active/microbmeg/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C00B596-1093-6444-8BD3-CDDCC482088E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C072572B-B530-4E49-B2A1-EF45075797A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00143F93-EB46-8540-961C-6051CCCD9F74}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -296,6 +296,39 @@
 Pampagana kumain
 Panlaban sa stress
 Pampalakas ng resistensya</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>protectplusgold.png</t>
+  </si>
+  <si>
+    <t>poweredge.png</t>
+  </si>
+  <si>
+    <t>feathershine.png</t>
+  </si>
+  <si>
+    <t>powermaxx.png</t>
+  </si>
+  <si>
+    <t>electromax.png</t>
+  </si>
+  <si>
+    <t>multimax.png</t>
+  </si>
+  <si>
+    <t>norovit.png</t>
+  </si>
+  <si>
+    <t>trimax.png</t>
+  </si>
+  <si>
+    <t>doxctrin.png</t>
+  </si>
+  <si>
+    <t>trifast.png</t>
   </si>
 </sst>
 </file>
@@ -673,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E701F1AA-65EE-674D-B75F-55AC10FF047B}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="F21" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,11 +718,12 @@
     <col min="2" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="47" style="1" customWidth="1"/>
     <col min="5" max="5" width="227.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="238.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="149.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -708,8 +742,11 @@
       <c r="F1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -729,7 +766,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -749,7 +786,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -768,8 +805,11 @@
       <c r="F4" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -788,8 +828,11 @@
       <c r="F5" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -808,8 +851,11 @@
       <c r="F6" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -828,8 +874,11 @@
       <c r="F7" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -848,8 +897,11 @@
       <c r="F8" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="G8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -868,8 +920,11 @@
       <c r="F9" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="G9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -888,8 +943,11 @@
       <c r="F10" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="G10" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -908,8 +966,11 @@
       <c r="F11" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -925,8 +986,11 @@
       <c r="E12" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G12" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -942,8 +1006,11 @@
       <c r="E13" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G13" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -962,8 +1029,11 @@
       <c r="F14" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G14" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -980,8 +1050,11 @@
       <c r="F15" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G15" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1000,8 +1073,11 @@
       <c r="F16" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G16" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1020,8 +1096,11 @@
       <c r="F17" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G17" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1040,8 +1119,11 @@
       <c r="F18" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -1060,8 +1142,11 @@
       <c r="F19" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="G19" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -1080,8 +1165,11 @@
       <c r="F20" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="G20" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -1100,8 +1188,11 @@
       <c r="F21" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="G21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -1120,8 +1211,11 @@
       <c r="F22" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="G22" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1140,8 +1234,11 @@
       <c r="F23" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="G23" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -1160,8 +1257,11 @@
       <c r="F24" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G24" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -1173,8 +1273,11 @@
       <c r="E25" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G25" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1186,8 +1289,11 @@
       <c r="E26" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G26" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1199,8 +1305,11 @@
       <c r="E27" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G27" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
